--- a/Konst/file.xlsx
+++ b/Konst/file.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="32">
   <si>
     <t>Добавка</t>
   </si>
@@ -28,16 +28,31 @@
     <t>ЛС</t>
   </si>
   <si>
+    <t>лотки22,5</t>
+  </si>
+  <si>
+    <t>лотки15</t>
+  </si>
+  <si>
+    <t>крышки</t>
+  </si>
+  <si>
     <t>ПД-6</t>
   </si>
   <si>
     <t>ПБ</t>
   </si>
   <si>
+    <t>П-1</t>
+  </si>
+  <si>
     <t>кассеты</t>
   </si>
   <si>
     <t>Дата</t>
+  </si>
+  <si>
+    <t>плиты22,5СУБ</t>
   </si>
   <si>
     <t>Наименование_изделия</t>
@@ -58,13 +73,37 @@
     <t>ЛМ</t>
   </si>
   <si>
+    <t>ФЛ</t>
+  </si>
+  <si>
     <t>Конструкционный бетон 28 суток ноябрь 2014г.</t>
   </si>
   <si>
     <t>БЛ-1</t>
   </si>
   <si>
+    <t>ПО СУБ</t>
+  </si>
+  <si>
+    <t>лотки35</t>
+  </si>
+  <si>
+    <t>балки</t>
+  </si>
+  <si>
+    <t>блоки</t>
+  </si>
+  <si>
     <t>плиты25</t>
+  </si>
+  <si>
+    <t>ПТО</t>
+  </si>
+  <si>
+    <t>плиты15</t>
+  </si>
+  <si>
+    <t>лотки22,5(10-12)</t>
   </si>
   <si>
     <t>плиты22,5</t>
@@ -74,15 +113,6 @@
   </si>
   <si>
     <t>ПРГ</t>
-  </si>
-  <si>
-    <t>плиты15 СУБ</t>
-  </si>
-  <si>
-    <t>лотки22,5 СУБ</t>
-  </si>
-  <si>
-    <t>балка</t>
   </si>
 </sst>
 </file>
@@ -608,10 +638,10 @@
   <dimension ref="A1:G271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="A143" sqref="A143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -627,7 +657,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="27" customHeight="1">
       <c r="A1" s="25" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -638,22 +668,22 @@
     </row>
     <row r="2" spans="1:7" ht="28.5" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G2" s="12" t="s">
         <v>0</v>
@@ -661,151 +691,151 @@
     </row>
     <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="20">
-        <v>41974</v>
+        <v>41948</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" s="9">
-        <v>24.4</v>
+        <v>43.6</v>
       </c>
       <c r="E3" s="6">
-        <v>21.8</v>
+        <v>16.5</v>
       </c>
       <c r="F3" s="22">
         <f t="shared" ref="F3:F66" si="0">ROUND(D3/E3*100,0)</f>
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="20">
-        <v>41974</v>
+        <v>41948</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4" s="21">
         <v>22.5</v>
       </c>
       <c r="D4" s="23">
-        <v>35</v>
+        <v>28.5</v>
       </c>
       <c r="E4" s="8">
         <v>24.3</v>
       </c>
       <c r="F4" s="22">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="20">
-        <v>41974</v>
+        <v>41948</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="D5" s="9">
-        <v>23.4</v>
+        <v>12.6</v>
       </c>
       <c r="E5" s="6">
-        <v>16.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F5" s="22">
         <f t="shared" si="0"/>
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="20">
-        <v>41974</v>
+        <v>41948</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C6" s="7">
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="D6" s="9">
-        <v>9.6</v>
+        <v>25.6</v>
       </c>
       <c r="E6" s="6">
-        <v>8.1</v>
+        <v>24.3</v>
       </c>
       <c r="F6" s="22">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="20">
-        <v>41974</v>
+        <v>41948</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7">
         <v>15</v>
       </c>
       <c r="D7" s="9">
-        <v>28.7</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F7" s="22">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="20">
-        <v>41974</v>
+        <v>41948</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D8" s="6">
-        <v>27.6</v>
+        <v>28.1</v>
       </c>
       <c r="E8" s="6">
-        <v>27.5</v>
+        <v>10.9</v>
       </c>
       <c r="F8" s="22">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>258</v>
       </c>
       <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="20">
-        <v>41974</v>
+        <v>41948</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
         <v>20</v>
       </c>
-      <c r="C9" s="7">
-        <v>22.5</v>
-      </c>
       <c r="D9" s="6">
-        <v>30</v>
+        <v>26.2</v>
       </c>
       <c r="E9" s="6">
-        <v>24.5</v>
+        <v>21.4</v>
       </c>
       <c r="F9" s="22">
         <f t="shared" si="0"/>
@@ -815,1239 +845,1239 @@
     </row>
     <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="20">
-        <v>41975</v>
+        <v>41948</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10" s="21">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D10" s="9">
-        <v>32.4</v>
+        <v>24.6</v>
       </c>
       <c r="E10" s="6">
-        <v>21.8</v>
+        <v>16.2</v>
       </c>
       <c r="F10" s="22">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="20">
-        <v>41975</v>
+        <v>41948</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7">
         <v>22.5</v>
       </c>
       <c r="D11" s="9">
-        <v>32.799999999999997</v>
+        <v>35</v>
       </c>
       <c r="E11" s="6">
-        <v>24.3</v>
+        <v>24.5</v>
       </c>
       <c r="F11" s="22">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="20">
-        <v>41975</v>
+        <v>41948</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7">
         <v>15</v>
       </c>
       <c r="D12" s="24">
-        <v>19.899999999999999</v>
+        <v>25.2</v>
       </c>
       <c r="E12" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F12" s="22">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>156</v>
       </c>
       <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="20">
-        <v>41975</v>
+        <v>41948</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C13" s="7">
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="D13" s="9">
-        <v>16.7</v>
+        <v>42.9</v>
       </c>
       <c r="E13" s="6">
-        <v>8.1</v>
+        <v>24.3</v>
       </c>
       <c r="F13" s="22">
         <f t="shared" si="0"/>
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="20">
-        <v>41975</v>
+        <v>41948</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C14" s="7">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6">
-        <v>31.3</v>
+        <v>32</v>
       </c>
       <c r="E14" s="6">
-        <v>24.5</v>
+        <v>27</v>
       </c>
       <c r="F14" s="22">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="20">
-        <v>41975</v>
+        <v>41949</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15" s="7">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="D15" s="6">
-        <v>30.4</v>
+        <v>23.5</v>
       </c>
       <c r="E15" s="6">
-        <v>27.5</v>
+        <v>24.3</v>
       </c>
       <c r="F15" s="22">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="20">
-        <v>41975</v>
+        <v>41949</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D16" s="6">
-        <v>29.9</v>
+        <v>23.1</v>
       </c>
       <c r="E16" s="6">
-        <v>16.5</v>
+        <v>10.9</v>
       </c>
       <c r="F16" s="22">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="20">
-        <v>41976</v>
+        <v>41949</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D17" s="6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E17" s="6">
-        <v>21.8</v>
+        <v>16.2</v>
       </c>
       <c r="F17" s="22">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>160</v>
       </c>
       <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="20">
-        <v>41976</v>
+        <v>41949</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C18" s="7">
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="D18" s="6">
-        <v>32.700000000000003</v>
+        <v>12.7</v>
       </c>
       <c r="E18" s="6">
-        <v>24.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F18" s="22">
         <f t="shared" si="0"/>
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="20">
-        <v>41976</v>
+        <v>41949</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D19" s="6">
-        <v>17.600000000000001</v>
+        <v>26.7</v>
       </c>
       <c r="E19" s="6">
-        <v>16.5</v>
+        <v>24.3</v>
       </c>
       <c r="F19" s="22">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="20">
-        <v>41976</v>
+        <v>41949</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7">
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="D20" s="6">
-        <v>13.5</v>
+        <v>38.9</v>
       </c>
       <c r="E20" s="6">
-        <v>8.1</v>
+        <v>24.5</v>
       </c>
       <c r="F20" s="22">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="20">
-        <v>41976</v>
+        <v>41949</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="D21" s="6">
-        <v>28.9</v>
+        <v>14.6</v>
       </c>
       <c r="E21" s="6">
-        <v>24.5</v>
+        <v>16.2</v>
       </c>
       <c r="F21" s="22">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="20">
-        <v>41976</v>
+        <v>41949</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C22" s="7">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D22" s="6">
-        <v>24.1</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="E22" s="6">
-        <v>16.5</v>
+        <v>24.3</v>
       </c>
       <c r="F22" s="22">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="20">
-        <v>41976</v>
+        <v>41949</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C23" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D23" s="6">
-        <v>23.6</v>
+        <v>23</v>
       </c>
       <c r="E23" s="6">
-        <v>27.5</v>
+        <v>16.2</v>
       </c>
       <c r="F23" s="22">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="20">
-        <v>41977</v>
+        <v>41949</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D24" s="6">
-        <v>24.3</v>
+        <v>35.1</v>
       </c>
       <c r="E24" s="6">
-        <v>21.8</v>
+        <v>27</v>
       </c>
       <c r="F24" s="22">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="20">
-        <v>41977</v>
+        <v>41950</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C25" s="7">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D25" s="6">
-        <v>19.600000000000001</v>
+        <v>26.4</v>
       </c>
       <c r="E25" s="6">
-        <v>16.5</v>
+        <v>24.3</v>
       </c>
       <c r="F25" s="22">
         <f t="shared" si="0"/>
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="20">
-        <v>41977</v>
+        <v>41950</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C26" s="21">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D26" s="6">
-        <v>17.7</v>
+        <v>27.2</v>
       </c>
       <c r="E26" s="8">
-        <v>8.1</v>
+        <v>10.9</v>
       </c>
       <c r="F26" s="22">
         <f t="shared" si="0"/>
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="20">
-        <v>41977</v>
+        <v>41950</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C27" s="7">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="D27" s="6">
-        <v>25.7</v>
+        <v>23.7</v>
       </c>
       <c r="E27" s="6">
-        <v>24.5</v>
+        <v>16.2</v>
       </c>
       <c r="F27" s="22">
         <f t="shared" si="0"/>
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="20">
-        <v>41977</v>
+        <v>41950</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D28" s="6">
-        <v>23.1</v>
+        <v>26.8</v>
       </c>
       <c r="E28" s="6">
-        <v>16.5</v>
+        <v>24.3</v>
       </c>
       <c r="F28" s="22">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="G28" s="13"/>
     </row>
     <row r="29" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="20">
-        <v>41977</v>
+        <v>41950</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" s="7">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="D29" s="6">
-        <v>28.2</v>
+        <v>11.1</v>
       </c>
       <c r="E29" s="6">
-        <v>27.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F29" s="22">
         <f t="shared" si="0"/>
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="G29" s="13"/>
     </row>
     <row r="30" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="20">
-        <v>41978</v>
+        <v>41950</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" s="6">
-        <v>32.4</v>
+        <v>23.7</v>
       </c>
       <c r="E30" s="6">
-        <v>21.8</v>
+        <v>16.2</v>
       </c>
       <c r="F30" s="22">
         <f t="shared" si="0"/>
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="20">
-        <v>41978</v>
+        <v>41950</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C31" s="7">
         <v>25</v>
       </c>
       <c r="D31" s="6">
-        <v>44</v>
+        <v>40.9</v>
       </c>
       <c r="E31" s="6">
         <v>27</v>
       </c>
       <c r="F31" s="22">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="20">
-        <v>41978</v>
+        <v>41950</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C32" s="7">
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="D32" s="6">
-        <v>13.2</v>
+        <v>33</v>
       </c>
       <c r="E32" s="6">
-        <v>8.1</v>
+        <v>24.3</v>
       </c>
       <c r="F32" s="22">
         <f t="shared" si="0"/>
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="G32" s="13"/>
     </row>
     <row r="33" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="20">
-        <v>41978</v>
+        <v>41950</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C33" s="21">
         <v>22.5</v>
       </c>
       <c r="D33" s="6">
-        <v>28.7</v>
+        <v>39.1</v>
       </c>
       <c r="E33" s="8">
         <v>24.5</v>
       </c>
       <c r="F33" s="22">
         <f t="shared" si="0"/>
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="G33" s="13"/>
     </row>
     <row r="34" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="20">
-        <v>41978</v>
+        <v>41950</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C34" s="7">
         <v>15</v>
       </c>
       <c r="D34" s="7">
-        <v>18.3</v>
+        <v>22.4</v>
       </c>
       <c r="E34" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F34" s="22">
         <f t="shared" si="0"/>
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="G34" s="13"/>
     </row>
     <row r="35" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="20">
-        <v>41978</v>
+        <v>41953</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C35" s="7">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D35" s="6">
-        <v>26.4</v>
+        <v>30.1</v>
       </c>
       <c r="E35" s="6">
-        <v>16.5</v>
+        <v>24.3</v>
       </c>
       <c r="F35" s="22">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="G35" s="13"/>
     </row>
     <row r="36" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="20">
-        <v>41978</v>
+        <v>41953</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36" s="7">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="D36" s="6">
-        <v>31.1</v>
+        <v>10.8</v>
       </c>
       <c r="E36" s="6">
-        <v>27.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F36" s="22">
         <f t="shared" si="0"/>
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="G36" s="13"/>
     </row>
     <row r="37" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="20">
-        <v>41981</v>
+        <v>41953</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="D37" s="6">
-        <v>32.200000000000003</v>
+        <v>37.1</v>
       </c>
       <c r="E37" s="6">
-        <v>21.8</v>
+        <v>24.5</v>
       </c>
       <c r="F37" s="22">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G37" s="13"/>
     </row>
     <row r="38" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="20">
-        <v>41981</v>
+        <v>41953</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="21">
         <v>22.5</v>
       </c>
       <c r="D38" s="6">
-        <v>28</v>
+        <v>27.2</v>
       </c>
       <c r="E38" s="8">
         <v>24.3</v>
       </c>
       <c r="F38" s="22">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G38" s="13"/>
     </row>
     <row r="39" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="20">
-        <v>41981</v>
+        <v>41953</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C39" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D39" s="6">
-        <v>20.2</v>
+        <v>30</v>
       </c>
       <c r="E39" s="6">
-        <v>16.5</v>
+        <v>10.9</v>
       </c>
       <c r="F39" s="22">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>275</v>
       </c>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="20">
-        <v>41981</v>
+        <v>41953</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C40" s="7">
         <v>15</v>
       </c>
       <c r="D40" s="6">
-        <v>26.5</v>
+        <v>26.4</v>
       </c>
       <c r="E40" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F40" s="22">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G40" s="13"/>
     </row>
     <row r="41" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="20">
-        <v>41981</v>
+        <v>41953</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C41" s="7">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="D41" s="7">
-        <v>37.700000000000003</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E41" s="6">
-        <v>26.8</v>
+        <v>24.3</v>
       </c>
       <c r="F41" s="22">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="20">
-        <v>41981</v>
+        <v>41953</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C42" s="7">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D42" s="6">
-        <v>13</v>
+        <v>26.1</v>
       </c>
       <c r="E42" s="6">
-        <v>8.1</v>
+        <v>16.2</v>
       </c>
       <c r="F42" s="22">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G42" s="13"/>
     </row>
     <row r="43" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="20">
-        <v>41982</v>
+        <v>41953</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D43" s="6">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="E43" s="6">
-        <v>21.8</v>
+        <v>27</v>
       </c>
       <c r="F43" s="22">
         <f t="shared" si="0"/>
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="G43" s="13"/>
     </row>
     <row r="44" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="20">
-        <v>41982</v>
+        <v>41953</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C44" s="7">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="D44" s="6">
-        <v>41.7</v>
+        <v>25</v>
       </c>
       <c r="E44" s="6">
-        <v>24.3</v>
+        <v>16.2</v>
       </c>
       <c r="F44" s="22">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="G44" s="13"/>
     </row>
     <row r="45" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="20">
-        <v>41982</v>
+        <v>41954</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="21">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D45" s="8">
-        <v>20.2</v>
+        <v>28.9</v>
       </c>
       <c r="E45" s="8">
-        <v>16.5</v>
+        <v>24.3</v>
       </c>
       <c r="F45" s="22">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G45" s="14"/>
     </row>
     <row r="46" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="20">
-        <v>41982</v>
+        <v>41954</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C46" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D46" s="6">
-        <v>33.700000000000003</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="E46" s="6">
-        <v>26.8</v>
+        <v>37.5</v>
       </c>
       <c r="F46" s="22">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="G46" s="13"/>
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="20">
-        <v>41982</v>
+        <v>41954</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C47" s="7">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="D47" s="6">
-        <v>24.5</v>
+        <v>13.2</v>
       </c>
       <c r="E47" s="6">
-        <v>16.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F47" s="22">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="G47" s="13"/>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="20">
-        <v>41982</v>
+        <v>41954</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C48" s="7">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D48" s="6">
-        <v>15.9</v>
+        <v>24.6</v>
       </c>
       <c r="E48" s="6">
-        <v>8.1</v>
+        <v>10.9</v>
       </c>
       <c r="F48" s="22">
         <f t="shared" si="0"/>
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="G48" s="13"/>
     </row>
     <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="20">
-        <v>41983</v>
+        <v>41954</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D49" s="6">
-        <v>23.6</v>
+        <v>21.8</v>
       </c>
       <c r="E49" s="6">
-        <v>21.8</v>
+        <v>16.2</v>
       </c>
       <c r="F49" s="22">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>135</v>
       </c>
       <c r="G49" s="13"/>
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="20">
-        <v>41983</v>
+        <v>41954</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C50" s="7">
         <v>22.5</v>
       </c>
       <c r="D50" s="6">
-        <v>34.9</v>
+        <v>29.9</v>
       </c>
       <c r="E50" s="6">
         <v>24.3</v>
       </c>
       <c r="F50" s="22">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="20">
-        <v>41983</v>
+        <v>41954</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C51" s="7">
         <v>15</v>
       </c>
       <c r="D51" s="6">
-        <v>26.6</v>
+        <v>25</v>
       </c>
       <c r="E51" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F51" s="22">
         <f t="shared" si="0"/>
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G51" s="13"/>
     </row>
     <row r="52" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="20">
-        <v>41983</v>
+        <v>41954</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C52" s="7">
         <v>25</v>
       </c>
       <c r="D52" s="6">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="E52" s="6">
-        <v>26.8</v>
+        <v>27</v>
       </c>
       <c r="F52" s="22">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G52" s="13"/>
     </row>
     <row r="53" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A53" s="20">
-        <v>41983</v>
+        <v>41954</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C53" s="7">
-        <v>7.5</v>
+        <v>25</v>
       </c>
       <c r="D53" s="6">
-        <v>15</v>
+        <v>40.9</v>
       </c>
       <c r="E53" s="6">
-        <v>8.1</v>
+        <v>27</v>
       </c>
       <c r="F53" s="22">
         <f t="shared" si="0"/>
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="G53" s="13"/>
     </row>
     <row r="54" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A54" s="20">
-        <v>41983</v>
+        <v>41954</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C54" s="7">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D54" s="6">
-        <v>24.2</v>
+        <v>37.5</v>
       </c>
       <c r="E54" s="6">
-        <v>16.5</v>
+        <v>24.5</v>
       </c>
       <c r="F54" s="22">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="G54" s="13"/>
     </row>
     <row r="55" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A55" s="20">
-        <v>41984</v>
+        <v>41955</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C55" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D55" s="6">
-        <v>23.9</v>
+        <v>41.4</v>
       </c>
       <c r="E55" s="6">
-        <v>21.8</v>
+        <v>26.8</v>
       </c>
       <c r="F55" s="22">
         <f t="shared" si="0"/>
-        <v>110</v>
+        <v>154</v>
       </c>
       <c r="G55" s="13"/>
     </row>
     <row r="56" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A56" s="20">
-        <v>41984</v>
+        <v>41955</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C56" s="21">
         <v>22.5</v>
       </c>
       <c r="D56" s="6">
-        <v>38.1</v>
+        <v>25.4</v>
       </c>
       <c r="E56" s="8">
         <v>24.3</v>
       </c>
       <c r="F56" s="22">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="G56" s="13"/>
     </row>
     <row r="57" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A57" s="20">
-        <v>41984</v>
+        <v>41955</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C57" s="7">
         <v>15</v>
       </c>
       <c r="D57" s="6">
-        <v>17.8</v>
+        <v>25.1</v>
       </c>
       <c r="E57" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F57" s="22">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>155</v>
       </c>
       <c r="G57" s="13"/>
     </row>
     <row r="58" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A58" s="20">
-        <v>41984</v>
+        <v>41955</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C58" s="7">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D58" s="6">
-        <v>14.7</v>
+        <v>22.3</v>
       </c>
       <c r="E58" s="6">
-        <v>8.1</v>
+        <v>10.9</v>
       </c>
       <c r="F58" s="22">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="G58" s="13"/>
     </row>
     <row r="59" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A59" s="20">
-        <v>41984</v>
+        <v>41955</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C59" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D59" s="6">
-        <v>25.3</v>
+        <v>27.5</v>
       </c>
       <c r="E59" s="6">
-        <v>24.3</v>
+        <v>16.2</v>
       </c>
       <c r="F59" s="22">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="G59" s="13"/>
     </row>
     <row r="60" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A60" s="20">
-        <v>41984</v>
+        <v>41955</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C60" s="7">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="D60" s="6">
-        <v>25.1</v>
+        <v>13.9</v>
       </c>
       <c r="E60" s="6">
-        <v>16.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F60" s="22">
         <f t="shared" si="0"/>
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G60" s="13"/>
     </row>
     <row r="61" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A61" s="20">
-        <v>41985</v>
+        <v>41955</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C61" s="7">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D61" s="6">
-        <v>35.700000000000003</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="E61" s="6">
-        <v>21.8</v>
+        <v>37.5</v>
       </c>
       <c r="F61" s="22">
         <f t="shared" si="0"/>
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="G61" s="13"/>
     </row>
     <row r="62" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A62" s="20">
-        <v>41985</v>
+        <v>41955</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C62" s="7">
         <v>22.5</v>
       </c>
       <c r="D62" s="9">
-        <v>37.200000000000003</v>
+        <v>29.7</v>
       </c>
       <c r="E62" s="6">
         <v>24.3</v>
       </c>
       <c r="F62" s="22">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="G62" s="13"/>
     </row>
     <row r="63" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A63" s="20">
-        <v>41985</v>
+        <v>41955</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C63" s="21">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D63" s="8">
-        <v>23.3</v>
+        <v>36.4</v>
       </c>
       <c r="E63" s="8">
-        <v>16.5</v>
+        <v>26.8</v>
       </c>
       <c r="F63" s="22">
         <f t="shared" si="0"/>
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G63" s="14"/>
     </row>
     <row r="64" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A64" s="20">
-        <v>41985</v>
+        <v>41955</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C64" s="7">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="D64" s="6">
-        <v>33.200000000000003</v>
+        <v>28.6</v>
       </c>
       <c r="E64" s="6">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
       <c r="F64" s="22">
         <f t="shared" si="0"/>
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G64" s="13"/>
     </row>
     <row r="65" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A65" s="20">
-        <v>41985</v>
+        <v>41955</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" s="7">
         <v>15</v>
       </c>
       <c r="D65" s="6">
-        <v>21.2</v>
+        <v>25.2</v>
       </c>
       <c r="E65" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F65" s="22">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="G65" s="13"/>
     </row>
     <row r="66" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A66" s="20">
-        <v>41985</v>
+        <v>41956</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>1</v>
@@ -2056,438 +2086,438 @@
         <v>7.5</v>
       </c>
       <c r="D66" s="6">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="E66" s="6">
-        <v>8.1</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F66" s="22">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="G66" s="13"/>
     </row>
     <row r="67" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A67" s="20">
-        <v>41988</v>
+        <v>41956</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C67" s="7">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="D67" s="6">
-        <v>31.3</v>
+        <v>29.3</v>
       </c>
       <c r="E67" s="6">
-        <v>21.8</v>
+        <v>24.3</v>
       </c>
       <c r="F67" s="22">
         <f t="shared" ref="F67:F130" si="1">ROUND(D67/E67*100,0)</f>
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="G67" s="13"/>
     </row>
     <row r="68" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A68" s="20">
-        <v>41988</v>
+        <v>41956</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C68" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D68" s="6">
-        <v>22.2</v>
+        <v>23.2</v>
       </c>
       <c r="E68" s="6">
-        <v>16.5</v>
+        <v>10.9</v>
       </c>
       <c r="F68" s="22">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="G68" s="13"/>
     </row>
     <row r="69" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A69" s="20">
-        <v>41988</v>
+        <v>41956</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C69" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D69" s="6">
-        <v>26.6</v>
+        <v>24</v>
       </c>
       <c r="E69" s="6">
-        <v>27.5</v>
+        <v>16.2</v>
       </c>
       <c r="F69" s="22">
         <f t="shared" si="1"/>
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="G69" s="13"/>
     </row>
     <row r="70" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A70" s="20">
-        <v>41988</v>
+        <v>41956</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C70" s="7">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D70" s="6">
-        <v>12.1</v>
+        <v>37.4</v>
       </c>
       <c r="E70" s="6">
-        <v>16.5</v>
+        <v>24.5</v>
       </c>
       <c r="F70" s="22">
         <f t="shared" si="1"/>
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="G70" s="13"/>
     </row>
     <row r="71" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A71" s="20">
-        <v>41988</v>
+        <v>41956</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C71" s="7">
-        <v>7.5</v>
+        <v>25</v>
       </c>
       <c r="D71" s="6">
-        <v>15.1</v>
+        <v>41.2</v>
       </c>
       <c r="E71" s="6">
-        <v>8.1</v>
+        <v>27</v>
       </c>
       <c r="F71" s="22">
         <f t="shared" si="1"/>
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="G71" s="13"/>
     </row>
     <row r="72" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A72" s="20">
-        <v>41989</v>
+        <v>41956</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C72" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D72" s="6">
-        <v>31.8</v>
+        <v>24</v>
       </c>
       <c r="E72" s="6">
-        <v>21.8</v>
+        <v>16.2</v>
       </c>
       <c r="F72" s="22">
         <f t="shared" si="1"/>
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G72" s="13"/>
     </row>
     <row r="73" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A73" s="20">
-        <v>41989</v>
+        <v>41956</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C73" s="7">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="D73" s="6">
-        <v>33.799999999999997</v>
+        <v>23.3</v>
       </c>
       <c r="E73" s="6">
-        <v>26.8</v>
+        <v>24.3</v>
       </c>
       <c r="F73" s="22">
         <f t="shared" si="1"/>
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="G73" s="13"/>
     </row>
     <row r="74" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A74" s="20">
-        <v>41989</v>
+        <v>41956</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D74" s="6">
-        <v>23.3</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E74" s="6">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="F74" s="22">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="G74" s="13"/>
     </row>
     <row r="75" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A75" s="20">
-        <v>41989</v>
+        <v>41956</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C75" s="21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D75" s="6">
-        <v>30.6</v>
+        <v>26.7</v>
       </c>
       <c r="E75" s="6">
-        <v>27.5</v>
+        <v>16.2</v>
       </c>
       <c r="F75" s="22">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="G75" s="13"/>
     </row>
     <row r="76" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A76" s="20">
-        <v>41989</v>
+        <v>41957</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C76" s="7">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D76" s="6">
-        <v>22.5</v>
+        <v>39.5</v>
       </c>
       <c r="E76" s="6">
-        <v>16.5</v>
+        <v>27</v>
       </c>
       <c r="F76" s="22">
         <f t="shared" si="1"/>
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="G76" s="13"/>
     </row>
     <row r="77" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A77" s="20">
-        <v>41989</v>
+        <v>41957</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C77" s="7">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D77" s="6">
-        <v>11.5</v>
+        <v>25.1</v>
       </c>
       <c r="E77" s="6">
-        <v>8.1</v>
+        <v>16.2</v>
       </c>
       <c r="F77" s="22">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="G77" s="13"/>
     </row>
     <row r="78" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A78" s="20">
-        <v>41990</v>
+        <v>41957</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C78" s="7">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="D78" s="6">
-        <v>40.9</v>
+        <v>29.5</v>
       </c>
       <c r="E78" s="6">
-        <v>26.8</v>
+        <v>24.5</v>
       </c>
       <c r="F78" s="22">
         <f t="shared" si="1"/>
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="G78" s="13"/>
     </row>
     <row r="79" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A79" s="20">
-        <v>41990</v>
+        <v>41957</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C79" s="7">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="D79" s="6">
-        <v>19.8</v>
+        <v>13.1</v>
       </c>
       <c r="E79" s="6">
-        <v>16.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F79" s="22">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="G79" s="13"/>
     </row>
     <row r="80" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A80" s="20">
-        <v>41990</v>
+        <v>41957</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C80" s="7">
         <v>22.5</v>
       </c>
       <c r="D80" s="6">
-        <v>26.5</v>
+        <v>29.7</v>
       </c>
       <c r="E80" s="6">
-        <v>24.8</v>
+        <v>24.3</v>
       </c>
       <c r="F80" s="22">
         <f t="shared" si="1"/>
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="G80" s="13"/>
     </row>
     <row r="81" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A81" s="20">
-        <v>41990</v>
+        <v>41957</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C81" s="7">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="D81" s="6">
-        <v>12.1</v>
+        <v>26.8</v>
       </c>
       <c r="E81" s="6">
-        <v>8.1</v>
+        <v>10.9</v>
       </c>
       <c r="F81" s="22">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="G81" s="13"/>
     </row>
     <row r="82" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A82" s="20">
-        <v>41990</v>
+        <v>41957</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C82" s="7">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="D82" s="6">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="E82" s="6">
-        <v>24.8</v>
+        <v>16.2</v>
       </c>
       <c r="F82" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="G82" s="13"/>
     </row>
     <row r="83" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A83" s="20">
-        <v>41990</v>
+        <v>41957</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C83" s="7">
         <v>15</v>
       </c>
       <c r="D83" s="6">
-        <v>20.9</v>
+        <v>19.2</v>
       </c>
       <c r="E83" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F83" s="22">
         <f t="shared" si="1"/>
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G83" s="13"/>
     </row>
     <row r="84" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A84" s="20">
-        <v>41991</v>
+        <v>41957</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C84" s="7">
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="D84" s="6">
-        <v>31.5</v>
+        <v>30.1</v>
       </c>
       <c r="E84" s="6">
-        <v>21.8</v>
+        <v>24.3</v>
       </c>
       <c r="F84" s="22">
         <f t="shared" si="1"/>
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="G84" s="13"/>
     </row>
     <row r="85" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A85" s="20">
-        <v>41991</v>
+        <v>41957</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C85" s="7">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="D85" s="6">
-        <v>33.1</v>
+        <v>48.9</v>
       </c>
       <c r="E85" s="6">
-        <v>24.8</v>
+        <v>27</v>
       </c>
       <c r="F85" s="22">
         <f t="shared" si="1"/>
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="G85" s="13"/>
     </row>
     <row r="86" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A86" s="20">
-        <v>41991</v>
+        <v>41960</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
@@ -2496,946 +2526,1246 @@
         <v>15</v>
       </c>
       <c r="D86" s="6">
-        <v>22.2</v>
+        <v>28.9</v>
       </c>
       <c r="E86" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F86" s="22">
         <f t="shared" si="1"/>
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="G86" s="13"/>
     </row>
     <row r="87" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A87" s="20">
-        <v>41991</v>
+        <v>41960</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C87" s="21">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D87" s="6">
-        <v>24.1</v>
+        <v>29.3</v>
       </c>
       <c r="E87" s="6">
-        <v>16.5</v>
+        <v>24.3</v>
       </c>
       <c r="F87" s="22">
         <f t="shared" si="1"/>
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="G87" s="13"/>
     </row>
     <row r="88" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A88" s="20">
-        <v>41991</v>
+        <v>41960</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C88" s="7">
-        <v>25</v>
+        <v>7.5</v>
       </c>
       <c r="D88" s="6">
-        <v>26</v>
+        <v>14.3</v>
       </c>
       <c r="E88" s="6">
-        <v>27.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F88" s="22">
         <f t="shared" si="1"/>
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="G88" s="13"/>
     </row>
     <row r="89" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A89" s="20">
-        <v>41991</v>
+        <v>41960</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C89" s="7">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D89" s="6">
-        <v>17.399999999999999</v>
+        <v>29</v>
       </c>
       <c r="E89" s="6">
-        <v>8.1</v>
+        <v>16.2</v>
       </c>
       <c r="F89" s="22">
         <f t="shared" si="1"/>
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="G89" s="13"/>
     </row>
     <row r="90" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A90" s="20">
-        <v>41992</v>
+        <v>41960</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C90" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D90" s="6">
-        <v>33.6</v>
+        <v>32.9</v>
       </c>
       <c r="E90" s="6">
-        <v>21.8</v>
+        <v>27</v>
       </c>
       <c r="F90" s="22">
         <f t="shared" si="1"/>
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="G90" s="13"/>
     </row>
     <row r="91" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A91" s="20">
-        <v>41992</v>
+        <v>41960</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C91" s="7">
         <v>22.5</v>
       </c>
       <c r="D91" s="6">
-        <v>35.1</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E91" s="6">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="F91" s="22">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G91" s="13"/>
     </row>
     <row r="92" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A92" s="20">
-        <v>41992</v>
+        <v>41960</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C92" s="7">
         <v>15</v>
       </c>
       <c r="D92" s="6">
-        <v>24.6</v>
+        <v>25.4</v>
       </c>
       <c r="E92" s="6">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F92" s="22">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="G92" s="13"/>
     </row>
     <row r="93" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A93" s="20">
-        <v>41992</v>
+        <v>41961</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C93" s="7">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="D93" s="6">
-        <v>29.1</v>
+        <v>38</v>
       </c>
       <c r="E93" s="6">
-        <v>27.5</v>
+        <v>24.5</v>
       </c>
       <c r="F93" s="22">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>155</v>
       </c>
       <c r="G93" s="13"/>
     </row>
     <row r="94" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A94" s="20">
-        <v>41992</v>
+        <v>41961</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="C94" s="21">
         <v>15</v>
       </c>
       <c r="D94" s="6">
-        <v>22.9</v>
+        <v>15.5</v>
       </c>
       <c r="E94" s="8">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="F94" s="22">
         <f t="shared" si="1"/>
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="G94" s="13"/>
     </row>
     <row r="95" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A95" s="20">
-        <v>41992</v>
+        <v>41961</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C95" s="7">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D95" s="6">
-        <v>14</v>
+        <v>28.9</v>
       </c>
       <c r="E95" s="6">
-        <v>8.1</v>
+        <v>16.2</v>
       </c>
       <c r="F95" s="22">
         <f t="shared" si="1"/>
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G95" s="13"/>
     </row>
     <row r="96" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A96" s="20">
-        <v>41992</v>
+        <v>41961</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C96" s="7">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="D96" s="6">
-        <v>25.9</v>
+        <v>28.7</v>
       </c>
       <c r="E96" s="6">
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="F96" s="22">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G96" s="13"/>
     </row>
     <row r="97" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A97" s="20">
-        <v>41995</v>
+        <v>41961</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C97" s="7">
-        <v>22.5</v>
+        <v>7.5</v>
       </c>
       <c r="D97" s="6">
-        <v>34.9</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E97" s="6">
-        <v>24.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F97" s="22">
         <f t="shared" si="1"/>
-        <v>141</v>
+        <v>204</v>
       </c>
       <c r="G97" s="13"/>
     </row>
     <row r="98" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A98" s="20">
-        <v>41995</v>
+        <v>41961</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C98" s="7">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="D98" s="6">
-        <v>19.2</v>
+        <v>42.4</v>
       </c>
       <c r="E98" s="6">
-        <v>16.5</v>
+        <v>24.3</v>
       </c>
       <c r="F98" s="22">
         <f t="shared" si="1"/>
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="G98" s="13"/>
     </row>
     <row r="99" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A99" s="20">
-        <v>41995</v>
+        <v>41961</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C99" s="7">
-        <v>7.5</v>
+        <v>22.5</v>
       </c>
       <c r="D99" s="6">
-        <v>11.5</v>
+        <v>33.1</v>
       </c>
       <c r="E99" s="6">
-        <v>8.1</v>
+        <v>24.3</v>
       </c>
       <c r="F99" s="22">
         <f t="shared" si="1"/>
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="G99" s="13"/>
     </row>
     <row r="100" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A100" s="20">
-        <v>41995</v>
+        <v>41961</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C100" s="7">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="D100" s="6">
-        <v>29.7</v>
+        <v>27.2</v>
       </c>
       <c r="E100" s="6">
-        <v>24.5</v>
+        <v>16.2</v>
       </c>
       <c r="F100" s="22">
         <f t="shared" si="1"/>
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="G100" s="13"/>
     </row>
     <row r="101" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A101" s="20">
-        <v>41995</v>
+        <v>41962</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C101" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D101" s="6">
-        <v>27.2</v>
+        <v>27.7</v>
       </c>
       <c r="E101" s="6">
-        <v>27.5</v>
+        <v>21.4</v>
       </c>
       <c r="F101" s="22">
         <f t="shared" si="1"/>
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="G101" s="13"/>
     </row>
     <row r="102" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A102" s="20">
-        <v>41996</v>
+        <v>41962</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102" s="21">
         <v>22.5</v>
       </c>
       <c r="D102" s="6">
-        <v>37.799999999999997</v>
+        <v>32</v>
       </c>
       <c r="E102" s="6">
-        <v>24.8</v>
+        <v>24.5</v>
       </c>
       <c r="F102" s="22">
         <f t="shared" si="1"/>
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="G102" s="13"/>
     </row>
     <row r="103" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A103" s="20">
-        <v>41996</v>
+        <v>41962</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C103" s="21">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D103" s="6">
-        <v>12.1</v>
+        <v>22.9</v>
       </c>
       <c r="E103" s="8">
-        <v>8.1</v>
+        <v>16.2</v>
       </c>
       <c r="F103" s="22">
         <f t="shared" si="1"/>
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G103" s="13"/>
     </row>
     <row r="104" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A104" s="20">
-        <v>41996</v>
+        <v>41962</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C104" s="7">
-        <v>20</v>
+        <v>7.5</v>
       </c>
       <c r="D104" s="6">
-        <v>31.1</v>
+        <v>14.1</v>
       </c>
       <c r="E104" s="6">
-        <v>21.8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F104" s="22">
         <f t="shared" si="1"/>
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="G104" s="13"/>
     </row>
     <row r="105" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A105" s="20">
-        <v>41996</v>
+        <v>41962</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C105" s="7">
         <v>22.5</v>
       </c>
       <c r="D105" s="6">
-        <v>30.4</v>
+        <v>42</v>
       </c>
       <c r="E105" s="6">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F105" s="22">
         <f t="shared" si="1"/>
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="G105" s="13"/>
     </row>
     <row r="106" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A106" s="20">
-        <v>41996</v>
+        <v>41962</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C106" s="7">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D106" s="8">
-        <v>31.2</v>
+        <v>27.5</v>
       </c>
       <c r="E106" s="6">
-        <v>27.5</v>
+        <v>16.2</v>
       </c>
       <c r="F106" s="22">
         <f t="shared" si="1"/>
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="G106" s="14"/>
     </row>
     <row r="107" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A107" s="20">
-        <v>41997</v>
+        <v>41962</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C107" s="7">
         <v>25</v>
       </c>
       <c r="D107" s="6">
-        <v>26.2</v>
+        <v>34.5</v>
       </c>
       <c r="E107" s="6">
-        <v>26.8</v>
+        <v>27.5</v>
       </c>
       <c r="F107" s="22">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="G107" s="13"/>
     </row>
     <row r="108" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A108" s="20">
-        <v>41997</v>
+        <v>41962</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C108" s="7">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="D108" s="6">
-        <v>11.9</v>
+        <v>28.2</v>
       </c>
       <c r="E108" s="6">
-        <v>8.1</v>
+        <v>16.2</v>
       </c>
       <c r="F108" s="22">
         <f t="shared" si="1"/>
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="G108" s="13"/>
     </row>
     <row r="109" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A109" s="20">
-        <v>41997</v>
+        <v>41962</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" s="7">
-        <v>25</v>
+        <v>22.5</v>
       </c>
       <c r="D109" s="6">
-        <v>30.5</v>
+        <v>31.6</v>
       </c>
       <c r="E109" s="6">
-        <v>27.5</v>
+        <v>24.3</v>
       </c>
       <c r="F109" s="22">
         <f t="shared" si="1"/>
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="G109" s="13"/>
     </row>
     <row r="110" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A110" s="20">
-        <v>41997</v>
+        <v>41963</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C110" s="7">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="D110" s="6">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="E110" s="6">
-        <v>16.5</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F110" s="22">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="G110" s="13"/>
     </row>
     <row r="111" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A111" s="20">
-        <v>41997</v>
+        <v>41963</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C111" s="7">
         <v>22.5</v>
       </c>
       <c r="D111" s="6">
-        <v>32.9</v>
+        <v>40.5</v>
       </c>
       <c r="E111" s="6">
-        <v>24.5</v>
+        <v>24.3</v>
       </c>
       <c r="F111" s="22">
         <f t="shared" si="1"/>
-        <v>134</v>
+        <v>167</v>
       </c>
       <c r="G111" s="13"/>
     </row>
     <row r="112" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A112" s="20">
-        <v>41997</v>
+        <v>41963</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C112" s="21">
         <v>20</v>
       </c>
       <c r="D112" s="6">
-        <v>33.1</v>
+        <v>29.2</v>
       </c>
       <c r="E112" s="8">
         <v>21.4</v>
       </c>
       <c r="F112" s="22">
         <f t="shared" si="1"/>
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="G112" s="13"/>
     </row>
     <row r="113" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A113" s="20"/>
-      <c r="B113" s="1"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="6"/>
-      <c r="F113" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A113" s="20">
+        <v>41963</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D113" s="6">
+        <v>36.1</v>
+      </c>
+      <c r="E113" s="6">
+        <v>24.1</v>
+      </c>
+      <c r="F113" s="22">
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="G113" s="13"/>
     </row>
     <row r="114" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A114" s="20"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="6"/>
-      <c r="F114" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A114" s="20">
+        <v>41963</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="7">
+        <v>15</v>
+      </c>
+      <c r="D114" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="E114" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="F114" s="22">
+        <f t="shared" si="1"/>
+        <v>164</v>
       </c>
       <c r="G114" s="13"/>
     </row>
     <row r="115" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A115" s="20"/>
-      <c r="B115" s="1"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A115" s="20">
+        <v>41963</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="21">
+        <v>22.5</v>
+      </c>
+      <c r="D115" s="6">
+        <v>33.6</v>
+      </c>
+      <c r="E115" s="8">
+        <v>24.3</v>
+      </c>
+      <c r="F115" s="22">
+        <f t="shared" si="1"/>
+        <v>138</v>
       </c>
       <c r="G115" s="13"/>
     </row>
     <row r="116" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A116" s="20"/>
-      <c r="B116" s="1"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="6"/>
-      <c r="F116" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A116" s="20">
+        <v>41963</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="7">
+        <v>15</v>
+      </c>
+      <c r="D116" s="6">
+        <v>25.6</v>
+      </c>
+      <c r="E116" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="F116" s="22">
+        <f t="shared" si="1"/>
+        <v>158</v>
       </c>
       <c r="G116" s="13"/>
     </row>
     <row r="117" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A117" s="20"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A117" s="20">
+        <v>41963</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="7">
+        <v>15</v>
+      </c>
+      <c r="D117" s="6">
+        <v>32.1</v>
+      </c>
+      <c r="E117" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="F117" s="22">
+        <f t="shared" si="1"/>
+        <v>198</v>
       </c>
       <c r="G117" s="13"/>
     </row>
     <row r="118" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A118" s="20"/>
-      <c r="B118" s="1"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A118" s="20">
+        <v>41963</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D118" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="E118" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="F118" s="22">
+        <f t="shared" si="1"/>
+        <v>114</v>
       </c>
       <c r="G118" s="13"/>
     </row>
     <row r="119" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A119" s="20"/>
-      <c r="B119" s="1"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A119" s="20">
+        <v>41963</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="7">
+        <v>25</v>
+      </c>
+      <c r="D119" s="6">
+        <v>27.3</v>
+      </c>
+      <c r="E119" s="6">
+        <v>27</v>
+      </c>
+      <c r="F119" s="22">
+        <f t="shared" si="1"/>
+        <v>101</v>
       </c>
       <c r="G119" s="13"/>
     </row>
     <row r="120" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A120" s="20"/>
-      <c r="B120" s="1"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A120" s="20">
+        <v>41964</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="7">
+        <v>15</v>
+      </c>
+      <c r="D120" s="6">
+        <v>32.5</v>
+      </c>
+      <c r="E120" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="F120" s="22">
+        <f t="shared" si="1"/>
+        <v>201</v>
       </c>
       <c r="G120" s="13"/>
     </row>
     <row r="121" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A121" s="20"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A121" s="20">
+        <v>41964</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="7">
+        <v>25</v>
+      </c>
+      <c r="D121" s="6">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="E121" s="6">
+        <v>27</v>
+      </c>
+      <c r="F121" s="22">
+        <f t="shared" si="1"/>
+        <v>129</v>
       </c>
       <c r="G121" s="13"/>
     </row>
     <row r="122" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A122" s="20"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A122" s="20">
+        <v>41964</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D122" s="6">
+        <v>25.3</v>
+      </c>
+      <c r="E122" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="F122" s="22">
+        <f t="shared" si="1"/>
+        <v>104</v>
       </c>
       <c r="G122" s="13"/>
     </row>
     <row r="123" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A123" s="20"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
-      <c r="F123" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A123" s="20">
+        <v>41964</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C123" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D123" s="6">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="E123" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="F123" s="22">
+        <f t="shared" si="1"/>
+        <v>161</v>
       </c>
       <c r="G123" s="13"/>
     </row>
     <row r="124" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A124" s="20"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="6"/>
-      <c r="E124" s="6"/>
-      <c r="F124" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A124" s="20">
+        <v>41964</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="D124" s="6">
+        <v>15.4</v>
+      </c>
+      <c r="E124" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F124" s="22">
+        <f t="shared" si="1"/>
+        <v>186</v>
       </c>
       <c r="G124" s="13"/>
     </row>
     <row r="125" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A125" s="20"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="6"/>
-      <c r="E125" s="6"/>
-      <c r="F125" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A125" s="20">
+        <v>41964</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C125" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D125" s="6">
+        <v>40</v>
+      </c>
+      <c r="E125" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="F125" s="22">
+        <f t="shared" si="1"/>
+        <v>163</v>
       </c>
       <c r="G125" s="13"/>
     </row>
     <row r="126" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A126" s="20"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A126" s="20">
+        <v>41967</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="7">
+        <v>25</v>
+      </c>
+      <c r="D126" s="6">
+        <v>38.1</v>
+      </c>
+      <c r="E126" s="6">
+        <v>26.8</v>
+      </c>
+      <c r="F126" s="22">
+        <f t="shared" si="1"/>
+        <v>142</v>
       </c>
       <c r="G126" s="13"/>
     </row>
     <row r="127" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A127" s="20"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A127" s="20">
+        <v>41967</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D127" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="E127" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="F127" s="22">
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="G127" s="13"/>
     </row>
     <row r="128" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A128" s="20"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="6"/>
-      <c r="E128" s="6"/>
-      <c r="F128" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A128" s="20">
+        <v>41967</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="7">
+        <v>15</v>
+      </c>
+      <c r="D128" s="6">
+        <v>27.2</v>
+      </c>
+      <c r="E128" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="F128" s="22">
+        <f t="shared" si="1"/>
+        <v>168</v>
       </c>
       <c r="G128" s="13"/>
     </row>
     <row r="129" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A129" s="20"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="6"/>
-      <c r="E129" s="6"/>
-      <c r="F129" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A129" s="20">
+        <v>41967</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="7">
+        <v>15</v>
+      </c>
+      <c r="D129" s="6">
+        <v>26.8</v>
+      </c>
+      <c r="E129" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="F129" s="22">
+        <f t="shared" si="1"/>
+        <v>165</v>
       </c>
       <c r="G129" s="13"/>
     </row>
     <row r="130" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A130" s="20"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="6"/>
-      <c r="E130" s="6"/>
-      <c r="F130" s="22" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="A130" s="20">
+        <v>41967</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C130" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D130" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="E130" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="F130" s="22">
+        <f t="shared" si="1"/>
+        <v>131</v>
       </c>
       <c r="G130" s="13"/>
     </row>
     <row r="131" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A131" s="20"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="6"/>
-      <c r="E131" s="6"/>
-      <c r="F131" s="22" t="e">
+      <c r="A131" s="20">
+        <v>41967</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="7">
+        <v>25</v>
+      </c>
+      <c r="D131" s="6">
+        <v>37.1</v>
+      </c>
+      <c r="E131" s="6">
+        <v>27</v>
+      </c>
+      <c r="F131" s="22">
         <f t="shared" ref="F131:F194" si="2">ROUND(D131/E131*100,0)</f>
-        <v>#DIV/0!</v>
+        <v>137</v>
       </c>
       <c r="G131" s="13"/>
     </row>
     <row r="132" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A132" s="20"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="6"/>
-      <c r="E132" s="6"/>
-      <c r="F132" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A132" s="20">
+        <v>41967</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D132" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="E132" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="F132" s="22">
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="G132" s="13"/>
     </row>
     <row r="133" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A133" s="20"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A133" s="20">
+        <v>41967</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C133" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="D133" s="6">
+        <v>18.7</v>
+      </c>
+      <c r="E133" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F133" s="22">
+        <f t="shared" si="2"/>
+        <v>225</v>
       </c>
       <c r="G133" s="13"/>
     </row>
     <row r="134" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A134" s="20"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A134" s="20">
+        <v>41967</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D134" s="6">
+        <v>25.8</v>
+      </c>
+      <c r="E134" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="F134" s="22">
+        <f t="shared" si="2"/>
+        <v>106</v>
       </c>
       <c r="G134" s="13"/>
     </row>
     <row r="135" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A135" s="20"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A135" s="20">
+        <v>41968</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C135" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="D135" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="E135" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F135" s="22">
+        <f t="shared" si="2"/>
+        <v>177</v>
       </c>
       <c r="G135" s="13"/>
     </row>
     <row r="136" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A136" s="20"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A136" s="20">
+        <v>41968</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C136" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D136" s="6">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E136" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="F136" s="22">
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="G136" s="13"/>
     </row>
     <row r="137" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A137" s="20"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="6"/>
-      <c r="E137" s="6"/>
-      <c r="F137" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A137" s="20">
+        <v>41968</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="7">
+        <v>15</v>
+      </c>
+      <c r="D137" s="6">
+        <v>29.7</v>
+      </c>
+      <c r="E137" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="F137" s="22">
+        <f t="shared" si="2"/>
+        <v>183</v>
       </c>
       <c r="G137" s="13"/>
     </row>
     <row r="138" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A138" s="20"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A138" s="20">
+        <v>41968</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D138" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="E138" s="6">
+        <v>24.3</v>
+      </c>
+      <c r="F138" s="22">
+        <f t="shared" si="2"/>
+        <v>125</v>
       </c>
       <c r="G138" s="13"/>
     </row>
     <row r="139" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A139" s="20"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="6"/>
-      <c r="E139" s="6"/>
-      <c r="F139" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A139" s="20">
+        <v>41968</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C139" s="7">
+        <v>25</v>
+      </c>
+      <c r="D139" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="E139" s="6">
+        <v>27</v>
+      </c>
+      <c r="F139" s="22">
+        <f t="shared" si="2"/>
+        <v>118</v>
       </c>
       <c r="G139" s="13"/>
     </row>
     <row r="140" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A140" s="20"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="6"/>
-      <c r="E140" s="6"/>
-      <c r="F140" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A140" s="20">
+        <v>41968</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C140" s="7">
+        <v>25</v>
+      </c>
+      <c r="D140" s="6">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="E140" s="6">
+        <v>26.8</v>
+      </c>
+      <c r="F140" s="22">
+        <f t="shared" si="2"/>
+        <v>150</v>
       </c>
       <c r="G140" s="13"/>
     </row>
     <row r="141" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A141" s="20"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A141" s="20">
+        <v>41968</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C141" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="D141" s="6">
+        <v>33.1</v>
+      </c>
+      <c r="E141" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="F141" s="22">
+        <f t="shared" si="2"/>
+        <v>135</v>
       </c>
       <c r="G141" s="13"/>
     </row>
     <row r="142" spans="1:7" ht="17.100000000000001" customHeight="1">
-      <c r="A142" s="20"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="22" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="A142" s="20">
+        <v>41968</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="7">
+        <v>15</v>
+      </c>
+      <c r="D142" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="E142" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="F142" s="22">
+        <f t="shared" si="2"/>
+        <v>151</v>
       </c>
       <c r="G142" s="13"/>
     </row>
